--- a/biology/Zoologie/Halitherses_grimaldii/Halitherses_grimaldii.xlsx
+++ b/biology/Zoologie/Halitherses_grimaldii/Halitherses_grimaldii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halithersidae, Halitherses
 Halitherses grimaldii, unique représentant du genre Halitherses et de la famille des Halithersidae, est une espèce fossile d'opilions dyspnois.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce type a été découverte dans de l'ambre de Birmanie. Elle date du Crétacé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce type a été découverte dans de l'ambre de Birmanie. Elle date du Crétacé.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 2,3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 2,3 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de David Alan Grimaldi[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de David Alan Grimaldi.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 (en) Gonzalo Giribet et Jason A. Dunlop, First identifiable Mesozoic harvestman (Opiliones: Dyspnoi) from Cretaceous Burmese amber., vol. 272, coll. « Proceedings of the Royal Society of London. Series B, Biological Sciences », 2005, 1007–1013 p. .
